--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nv01501827.bmwgroup.net\Q456616\MA_Thesis\evaluation\runtime_vs_threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{24D78EC9-5B7E-4121-A5C5-EED7FAEE3107}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12792" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run01" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Run03" sheetId="4" r:id="rId4"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
   <si>
     <t>V</t>
   </si>
@@ -57,16 +58,19 @@
     <t>normalized
 2</t>
   </si>
+  <si>
+    <t>\\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +82,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="BMW Group Condensed"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="BMW Group Condensed"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,10 +136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -145,16 +158,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -171,7 +188,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -185,7 +202,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -344,6 +360,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB8D-4AAD-A1C6-243225798F51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -468,6 +489,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB8D-4AAD-A1C6-243225798F51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -592,6 +618,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB8D-4AAD-A1C6-243225798F51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -716,6 +747,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB8D-4AAD-A1C6-243225798F51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -844,7 +880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -912,7 +947,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -926,7 +961,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1133,6 +1167,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1305,6 +1344,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1477,6 +1521,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1649,6 +1698,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1821,6 +1875,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1993,6 +2052,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2167,6 +2231,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2341,6 +2410,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2515,6 +2589,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-455E-496D-AF6A-42CC0A5AD45F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2664,7 +2743,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2732,7 +2810,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2746,7 +2824,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2953,6 +3030,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3125,6 +3207,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3297,6 +3384,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3469,6 +3561,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3641,6 +3738,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3813,6 +3915,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3987,6 +4094,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4161,6 +4273,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4335,6 +4452,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2788-44E9-B145-597CC1F210A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4484,7 +4606,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4552,7 +4673,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -4566,7 +4687,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4773,6 +4893,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4945,6 +5070,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5117,6 +5247,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5289,6 +5424,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5461,6 +5601,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5633,6 +5778,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5807,6 +5957,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -5981,6 +6136,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6155,6 +6315,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B949-4863-B9CF-6527CCB5546D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6304,7 +6469,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6372,7 +6536,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -6386,7 +6550,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6593,6 +6756,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6765,6 +6933,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6937,6 +7110,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7109,6 +7287,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7281,6 +7464,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -7453,6 +7641,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -7627,6 +7820,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -7801,6 +7999,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -7975,6 +8178,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-98CA-44C2-B474-58CC2FFC513D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8124,7 +8332,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8192,7 +8399,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -8206,7 +8413,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8413,6 +8619,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8585,6 +8796,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8757,6 +8973,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8929,6 +9150,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9101,6 +9327,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9273,6 +9504,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -9447,6 +9683,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -9621,6 +9862,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -9795,6 +10041,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9327-4803-B310-EAD8A7AD14C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9944,7 +10195,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10012,7 +10262,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -10026,7 +10276,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10233,6 +10482,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ED8-466C-A2B7-0B75FFC7A2D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10405,6 +10659,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ED8-466C-A2B7-0B75FFC7A2D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10577,6 +10836,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5ED8-466C-A2B7-0B75FFC7A2D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -10749,6 +11013,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5ED8-466C-A2B7-0B75FFC7A2D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10921,6 +11190,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5ED8-466C-A2B7-0B75FFC7A2D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11068,7 +11342,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11136,7 +11409,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -11308,6 +11581,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11432,6 +11710,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11556,6 +11839,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11680,6 +11968,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -11804,6 +12097,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -11928,6 +12226,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -12054,6 +12357,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -12180,6 +12488,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -12306,6 +12619,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5CFD-4CE8-8E06-6FE33131B36B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12519,7 +12837,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -12691,6 +13009,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -12815,6 +13138,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -12939,6 +13267,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -13063,6 +13396,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -13187,6 +13525,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -13311,6 +13654,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -13437,6 +13785,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -13563,6 +13916,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -13689,6 +14047,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E011-4AF2-A776-7589EF472D0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13902,7 +14265,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -13916,7 +14279,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14075,6 +14437,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -14199,6 +14566,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -14323,6 +14695,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -14447,6 +14824,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -14571,6 +14953,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -14695,6 +15082,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -14821,6 +15213,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -14947,6 +15344,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -15073,6 +15475,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E64F-41EA-9B80-8A1BCA9D50E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15219,7 +15626,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15287,7 +15693,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -15301,7 +15707,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15460,6 +15865,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0BA-45CE-B1AC-7AD1D78E7E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -15584,6 +15994,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0BA-45CE-B1AC-7AD1D78E7E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -15708,6 +16123,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0BA-45CE-B1AC-7AD1D78E7E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -15834,6 +16254,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E0BA-45CE-B1AC-7AD1D78E7E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -15960,6 +16385,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E0BA-45CE-B1AC-7AD1D78E7E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16106,7 +16536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16174,7 +16603,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -16188,7 +16617,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16347,6 +16775,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -16471,6 +16904,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -16595,6 +17033,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -16719,6 +17162,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -16843,6 +17291,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -16967,6 +17420,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -17093,6 +17551,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -17219,6 +17682,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -17345,6 +17813,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A081-4996-B9C6-A6DCB6F2E79E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -17491,7 +17964,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17559,7 +18031,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -17573,7 +18045,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17732,6 +18203,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -17856,6 +18332,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -17980,6 +18461,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -18104,6 +18590,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -18228,6 +18719,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -18352,6 +18848,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -18478,6 +18979,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -18604,6 +19110,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -18730,6 +19241,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3F85-4A6B-8BE8-9C4487D6C54B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18876,7 +19392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18944,7 +19459,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -18958,7 +19473,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19117,6 +19631,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -19241,6 +19760,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -19365,6 +19889,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -19489,6 +20018,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -19613,6 +20147,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -19737,6 +20276,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -19863,6 +20407,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -19989,6 +20538,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -20115,6 +20669,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-90A3-4226-9938-0371EDC72D65}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -20261,7 +20820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20329,7 +20887,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -20343,7 +20901,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20502,6 +21059,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0483-47A3-B1C9-F056E583B918}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -20626,6 +21188,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0483-47A3-B1C9-F056E583B918}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -20750,6 +21317,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0483-47A3-B1C9-F056E583B918}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -20876,6 +21448,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0483-47A3-B1C9-F056E583B918}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -21002,6 +21579,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0483-47A3-B1C9-F056E583B918}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -21148,7 +21730,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29559,7 +30140,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29594,7 +30181,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29624,7 +30217,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29656,7 +30255,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29688,7 +30293,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29725,7 +30336,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29755,7 +30372,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29785,7 +30408,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29815,7 +30444,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29850,7 +30485,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -29880,7 +30521,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29912,7 +30559,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29944,7 +30597,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29976,7 +30635,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30008,7 +30673,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7"/>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -30046,7 +30717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8"/>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -30084,7 +30761,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9"/>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -30122,7 +30805,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Grafik 10"/>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -30160,7 +30849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Grafik 11"/>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -30203,7 +30898,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -30706,26 +31407,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.2109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1">
         <v>0.1</v>
       </c>
@@ -30742,7 +31443,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0.67</v>
       </c>
@@ -30762,7 +31463,7 @@
         <v>74.244299999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>0.68</v>
       </c>
@@ -30782,7 +31483,7 @@
         <v>28.915099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>0.69</v>
       </c>
@@ -30802,7 +31503,7 @@
         <v>11.2797</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>0.7</v>
       </c>
@@ -30822,7 +31523,7 @@
         <v>4.6652899999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>0.72</v>
       </c>
@@ -30842,7 +31543,7 @@
         <v>0.94789599999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>0.74</v>
       </c>
@@ -30862,7 +31563,7 @@
         <v>0.26858399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>0.76</v>
       </c>
@@ -30882,7 +31583,7 @@
         <v>0.134876</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>0.78</v>
       </c>
@@ -30902,7 +31603,7 @@
         <v>0.109095</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>0.8</v>
       </c>
@@ -30922,7 +31623,7 @@
         <v>0.102551</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>0.85</v>
       </c>
@@ -30942,7 +31643,7 @@
         <v>0.100381</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -30969,23 +31670,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="3" customWidth="1"/>
-    <col min="2" max="10" width="9.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.78515625" style="3" customWidth="1"/>
+    <col min="2" max="10" width="9.640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="11" style="3"/>
-    <col min="12" max="21" width="11.5546875" customWidth="1"/>
+    <col min="12" max="21" width="11.5703125" customWidth="1"/>
     <col min="22" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="B1" s="8">
         <v>0.1</v>
       </c>
@@ -31030,7 +31731,7 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2" s="8">
         <v>0.72</v>
       </c>
@@ -31072,7 +31773,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" s="8">
         <v>0.73</v>
       </c>
@@ -31114,7 +31815,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" s="8">
         <v>0.74</v>
       </c>
@@ -31156,7 +31857,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" s="8">
         <v>0.75</v>
       </c>
@@ -31198,7 +31899,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" s="8">
         <v>0.76</v>
       </c>
@@ -31240,7 +31941,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="8">
         <v>0.77</v>
       </c>
@@ -31282,7 +31983,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="8">
         <v>0.78</v>
       </c>
@@ -31324,7 +32025,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="8">
         <v>0.79</v>
       </c>
@@ -31366,7 +32067,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="8">
         <v>0.8</v>
       </c>
@@ -31408,7 +32109,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="8">
         <v>0.81</v>
       </c>
@@ -31450,7 +32151,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="8">
         <v>0.82</v>
       </c>
@@ -31492,7 +32193,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="8">
         <v>0.83</v>
       </c>
@@ -31534,7 +32235,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="8">
         <v>0.84</v>
       </c>
@@ -31576,7 +32277,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -31598,7 +32299,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -31640,7 +32341,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
@@ -31682,7 +32383,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -31724,7 +32425,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -31746,7 +32447,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
@@ -31788,7 +32489,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -31830,7 +32531,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
@@ -31872,7 +32573,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="8"/>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -31912,7 +32613,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="8">
         <v>0.72</v>
       </c>
@@ -31969,7 +32670,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="8">
         <v>0.73</v>
       </c>
@@ -32026,7 +32727,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="8">
         <v>0.74</v>
       </c>
@@ -32083,7 +32784,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="8">
         <v>0.75</v>
       </c>
@@ -32140,7 +32841,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="8">
         <v>0.76</v>
       </c>
@@ -32197,7 +32898,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="8">
         <v>0.77</v>
       </c>
@@ -32254,7 +32955,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" s="8">
         <v>0.78</v>
       </c>
@@ -32311,7 +33012,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" s="8">
         <v>0.79</v>
       </c>
@@ -32368,7 +33069,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="8">
         <v>0.8</v>
       </c>
@@ -32425,7 +33126,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" s="8">
         <v>0.81</v>
       </c>
@@ -32482,7 +33183,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" s="8">
         <v>0.82</v>
       </c>
@@ -32539,7 +33240,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35" s="8">
         <v>0.83</v>
       </c>
@@ -32596,7 +33297,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36" s="8">
         <v>0.84</v>
       </c>
@@ -32653,7 +33354,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="B37" s="4">
         <v>0.1</v>
       </c>
@@ -32692,7 +33393,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28">
       <c r="A38" s="8">
         <v>0.72</v>
       </c>
@@ -32743,7 +33444,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28">
       <c r="A39" s="8">
         <v>0.73</v>
       </c>
@@ -32794,7 +33495,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28">
       <c r="A40" s="8">
         <v>0.74</v>
       </c>
@@ -32845,7 +33546,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28">
       <c r="A41" s="8">
         <v>0.75</v>
       </c>
@@ -32896,7 +33597,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28">
       <c r="A42" s="8">
         <v>0.76</v>
       </c>
@@ -32947,7 +33648,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28">
       <c r="A43" s="8">
         <v>0.77</v>
       </c>
@@ -32998,7 +33699,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28">
       <c r="A44" s="8">
         <v>0.78</v>
       </c>
@@ -33049,7 +33750,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28">
       <c r="A45" s="8">
         <v>0.79</v>
       </c>
@@ -33100,7 +33801,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28">
       <c r="A46" s="8">
         <v>0.8</v>
       </c>
@@ -33151,7 +33852,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28">
       <c r="A47" s="8">
         <v>0.81</v>
       </c>
@@ -33202,7 +33903,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28">
       <c r="A48" s="8">
         <v>0.82</v>
       </c>
@@ -33253,7 +33954,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" s="8">
         <v>0.83</v>
       </c>
@@ -33304,7 +34005,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" s="8">
         <v>0.84</v>
       </c>
@@ -33355,7 +34056,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21">
       <c r="B51" s="4">
         <v>0.1</v>
       </c>
@@ -33394,7 +34095,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="A52" s="8">
         <v>0.72</v>
       </c>
@@ -33445,7 +34146,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21">
       <c r="A53" s="8">
         <v>0.73</v>
       </c>
@@ -33496,7 +34197,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" s="8">
         <v>0.74</v>
       </c>
@@ -33547,7 +34248,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" s="8">
         <v>0.75</v>
       </c>
@@ -33598,7 +34299,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" s="8">
         <v>0.76</v>
       </c>
@@ -33649,7 +34350,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" s="8">
         <v>0.77</v>
       </c>
@@ -33700,7 +34401,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21">
       <c r="A58" s="8">
         <v>0.78</v>
       </c>
@@ -33751,7 +34452,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21">
       <c r="A59" s="8">
         <v>0.79</v>
       </c>
@@ -33802,7 +34503,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" s="8">
         <v>0.8</v>
       </c>
@@ -33853,7 +34554,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21">
       <c r="A61" s="8">
         <v>0.81</v>
       </c>
@@ -33904,7 +34605,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21">
       <c r="A62" s="8">
         <v>0.82</v>
       </c>
@@ -33955,7 +34656,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21">
       <c r="A63" s="8">
         <v>0.83</v>
       </c>
@@ -34006,7 +34707,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" s="8">
         <v>0.84</v>
       </c>
@@ -34065,20 +34766,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="8.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="8.2109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="8">
         <v>0.1</v>
       </c>
@@ -34107,7 +34808,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>0.72</v>
       </c>
@@ -34139,7 +34840,7 @@
         <v>1.1746490592237799</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>0.73</v>
       </c>
@@ -34171,7 +34872,7 @@
         <v>0.63007070064033899</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>0.74</v>
       </c>
@@ -34203,7 +34904,7 @@
         <v>0.350331214706042</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>0.75</v>
       </c>
@@ -34235,7 +34936,7 @@
         <v>0.20878459092586099</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>0.76</v>
       </c>
@@ -34267,7 +34968,7 @@
         <v>0.15646014858673701</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>0.77</v>
       </c>
@@ -34299,7 +35000,7 @@
         <v>0.126691838396044</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>0.78</v>
       </c>
@@ -34331,7 +35032,7 @@
         <v>0.10501233212718999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>0.79</v>
       </c>
@@ -34363,7 +35064,7 @@
         <v>0.101469513439763</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>0.8</v>
       </c>
@@ -34395,7 +35096,7 @@
         <v>9.9227354776897397E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>0.81</v>
       </c>
@@ -34427,7 +35128,7 @@
         <v>9.7611586720768306E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>0.82</v>
       </c>
@@ -34459,7 +35160,7 @@
         <v>9.6819373003331197E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>0.83</v>
       </c>
@@ -34491,7 +35192,7 @@
         <v>9.6734354780293505E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>0.84</v>
       </c>
@@ -34523,7 +35224,7 @@
         <v>9.6963023982070295E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -34535,7 +35236,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -34567,7 +35268,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
@@ -34599,7 +35300,7 @@
         <v>95.86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -34631,7 +35332,7 @@
         <v>81378.559999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -34643,7 +35344,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
@@ -34675,7 +35376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -34707,7 +35408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
@@ -34739,7 +35440,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -34769,7 +35470,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>0.72</v>
       </c>
@@ -34810,7 +35511,7 @@
         <v>1.2118870429057944</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="8">
         <v>0.73</v>
       </c>
@@ -34851,7 +35552,7 @@
         <v>0.65004480463737846</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="8">
         <v>0.74</v>
       </c>
@@ -34892,7 +35593,7 @@
         <v>0.36143719393795365</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="8">
         <v>0.75</v>
       </c>
@@ -34933,7 +35634,7 @@
         <v>0.21540334835720043</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="8">
         <v>0.76</v>
       </c>
@@ -34974,7 +35675,7 @@
         <v>0.16142014954549871</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="8">
         <v>0.77</v>
       </c>
@@ -35015,7 +35716,7 @@
         <v>0.13070814315855225</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="8">
         <v>0.78</v>
       </c>
@@ -35056,7 +35757,7 @@
         <v>0.10834136685416339</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="8">
         <v>0.79</v>
       </c>
@@ -35097,7 +35798,7 @@
         <v>0.1046862359629894</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="8">
         <v>0.8</v>
       </c>
@@ -35138,7 +35839,7 @@
         <v>0.10237299780021303</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8">
         <v>0.81</v>
       </c>
@@ -35179,7 +35880,7 @@
         <v>0.10070600768415414</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="8">
         <v>0.82</v>
       </c>
@@ -35220,7 +35921,7 @@
         <v>9.9888679707057129E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8">
         <v>0.83</v>
       </c>
@@ -35261,7 +35962,7 @@
         <v>9.9800966289929516E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="8">
         <v>0.84</v>
       </c>
@@ -35302,7 +36003,7 @@
         <v>0.10003688461853059</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="B37" s="4">
         <v>0.1</v>
       </c>
@@ -35331,7 +36032,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="8">
         <v>0.72</v>
       </c>
@@ -35372,7 +36073,7 @@
         <v>1.2253797822071562</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8">
         <v>0.73</v>
       </c>
@@ -35413,7 +36114,7 @@
         <v>0.65728218301725327</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="8">
         <v>0.74</v>
       </c>
@@ -35454,7 +36155,7 @@
         <v>0.36546131306701651</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8">
         <v>0.75</v>
       </c>
@@ -35495,7 +36196,7 @@
         <v>0.21780157617970058</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="8">
         <v>0.76</v>
       </c>
@@ -35536,7 +36237,7 @@
         <v>0.16321734674184959</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8">
         <v>0.77</v>
       </c>
@@ -35577,7 +36278,7 @@
         <v>0.13216340329234719</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="8">
         <v>0.78</v>
       </c>
@@ -35618,7 +36319,7 @@
         <v>0.10954760288669933</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="8">
         <v>0.79</v>
       </c>
@@ -35659,7 +36360,7 @@
         <v>0.10585177700788964</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="8">
         <v>0.8</v>
       </c>
@@ -35700,7 +36401,7 @@
         <v>0.10351278403598727</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="8">
         <v>0.81</v>
       </c>
@@ -35741,7 +36442,7 @@
         <v>0.10182723421736731</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="8">
         <v>0.82</v>
       </c>
@@ -35782,7 +36483,7 @@
         <v>0.10100080638778552</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="8">
         <v>0.83</v>
       </c>
@@ -35823,7 +36524,7 @@
         <v>0.10091211639922126</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="8">
         <v>0.84</v>
       </c>
@@ -35864,7 +36565,7 @@
         <v>0.10115066136247683</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="B51" s="4">
         <v>0.1</v>
       </c>
@@ -35893,7 +36594,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="8">
         <v>0.72</v>
       </c>
@@ -35934,7 +36635,7 @@
         <v>0.72171900020335822</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="8">
         <v>0.73</v>
       </c>
@@ -35975,7 +36676,7 @@
         <v>0.387123279547057</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="8">
         <v>0.74</v>
       </c>
@@ -36016,7 +36717,7 @@
         <v>0.21524785810048863</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="8">
         <v>0.75</v>
       </c>
@@ -36057,7 +36758,7 @@
         <v>0.12827985093731137</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="8">
         <v>0.76</v>
       </c>
@@ -36098,7 +36799,7 @@
         <v>9.613106239944344E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="8">
         <v>0.77</v>
       </c>
@@ -36139,7 +36840,7 @@
         <v>7.7841042159042875E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="8">
         <v>0.78</v>
       </c>
@@ -36180,7 +36881,7 @@
         <v>6.4520883711379262E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="8">
         <v>0.79</v>
       </c>
@@ -36221,7 +36922,7 @@
         <v>6.2344131820324056E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="8">
         <v>0.8</v>
       </c>
@@ -36262,7 +36963,7 @@
         <v>6.0966521634750852E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="8">
         <v>0.81</v>
       </c>
@@ -36303,7 +37004,7 @@
         <v>5.9973773633232336E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="8">
         <v>0.82</v>
       </c>
@@ -36344,7 +37045,7 @@
         <v>5.94870276663357E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="8">
         <v>0.83</v>
       </c>
@@ -36385,7 +37086,7 @@
         <v>5.9434791412070649E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="8">
         <v>0.84</v>
       </c>
@@ -36433,22 +37134,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC69"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="2" max="2" width="5.88671875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.2109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="25" max="33" width="11.33203125" customWidth="1"/>
+    <col min="25" max="33" width="11.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="13" customFormat="1">
       <c r="C1" s="13">
         <v>0.1</v>
       </c>
@@ -36585,8 +37286,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:55">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13">
@@ -36740,8 +37441,8 @@
         <v>6.3896035725845995E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:55">
+      <c r="A3" s="17"/>
       <c r="B3" s="13">
         <v>71</v>
       </c>
@@ -36893,8 +37594,8 @@
         <v>3.3711908003426598E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:55">
+      <c r="A4" s="17"/>
       <c r="B4" s="13">
         <v>72</v>
       </c>
@@ -37046,8 +37747,8 @@
         <v>2.2071438339241501E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:55">
+      <c r="A5" s="17"/>
       <c r="B5" s="13">
         <v>73</v>
       </c>
@@ -37199,8 +37900,8 @@
         <v>1.7028380105118E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:55">
+      <c r="A6" s="17"/>
       <c r="B6" s="13">
         <v>74</v>
       </c>
@@ -37352,8 +38053,8 @@
         <v>1.4614833491203899E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:55">
+      <c r="A7" s="17"/>
       <c r="B7" s="13">
         <v>75</v>
       </c>
@@ -37505,8 +38206,8 @@
         <v>1.3331543336099201E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:55">
+      <c r="A8" s="17"/>
       <c r="B8" s="13">
         <v>76</v>
       </c>
@@ -37658,8 +38359,8 @@
         <v>1.26258278939801E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:55">
+      <c r="A9" s="17"/>
       <c r="B9" s="13">
         <v>77</v>
       </c>
@@ -37811,8 +38512,8 @@
         <v>1.2411214238076401E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:55">
+      <c r="A10" s="17"/>
       <c r="B10" s="13">
         <v>78</v>
       </c>
@@ -37964,8 +38665,8 @@
         <v>1.2302938798927E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:55">
+      <c r="A11" s="17"/>
       <c r="B11" s="13">
         <v>79</v>
       </c>
@@ -38117,8 +38818,8 @@
         <v>1.22277221929082E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:55">
+      <c r="A12" s="17"/>
       <c r="B12" s="13">
         <v>80</v>
       </c>
@@ -38270,8 +38971,8 @@
         <v>1.2178389453502E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:55">
+      <c r="A13" s="17"/>
       <c r="B13" s="13">
         <v>81</v>
       </c>
@@ -38423,8 +39124,8 @@
         <v>1.21754368145476E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:55">
+      <c r="A14" s="17"/>
       <c r="B14" s="13">
         <v>82</v>
       </c>
@@ -38576,8 +39277,8 @@
         <v>1.21813432068658E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:55">
+      <c r="A15" s="17"/>
       <c r="B15" s="13">
         <v>83</v>
       </c>
@@ -38729,8 +39430,8 @@
         <v>1.21658499473458E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:55">
+      <c r="A16" s="17"/>
       <c r="B16" s="13">
         <v>84</v>
       </c>
@@ -38882,8 +39583,8 @@
         <v>1.21243861445967E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:55">
+      <c r="A17" s="17"/>
       <c r="B17" s="13">
         <v>85</v>
       </c>
@@ -39035,8 +39736,8 @@
         <v>1.21638246862848E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+    <row r="18" spans="1:55">
+      <c r="A18" s="17"/>
       <c r="B18" s="13">
         <v>86</v>
       </c>
@@ -39188,8 +39889,8 @@
         <v>1.22000618271252E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:55">
+      <c r="A19" s="17"/>
       <c r="B19" s="13">
         <v>87</v>
       </c>
@@ -39341,8 +40042,8 @@
         <v>1.2184755479541E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:55">
+      <c r="A20" s="17"/>
       <c r="B20" s="13">
         <v>88</v>
       </c>
@@ -39494,8 +40195,8 @@
         <v>1.21573978627934E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:55">
+      <c r="A21" s="17"/>
       <c r="B21" s="13">
         <v>89</v>
       </c>
@@ -39647,8 +40348,8 @@
         <v>1.21527823948577E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:55">
+      <c r="A22" s="17"/>
       <c r="B22" s="13">
         <v>90</v>
       </c>
@@ -39800,7 +40501,7 @@
         <v>1.2167339485003101E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55">
       <c r="M23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="11"/>
@@ -39833,7 +40534,7 @@
       <c r="BB23" s="11"/>
       <c r="BC23" s="11"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55">
       <c r="B24"/>
       <c r="C24">
         <v>1877183.89</v>
@@ -39971,7 +40672,7 @@
         <v>15662545.050000001</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55">
       <c r="M25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="11"/>
@@ -40004,8 +40705,8 @@
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:55">
+      <c r="A26" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="13">
@@ -40044,28 +40745,28 @@
       <c r="N26" s="11">
         <v>1.47720236761327</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="16">
         <v>1.2431576761976599</v>
       </c>
       <c r="P26" s="11">
         <v>1.12978874462484</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="16">
         <v>1.0971263801825</v>
       </c>
       <c r="R26" s="11">
         <v>2.0494884041155901</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="16">
         <v>1.4443479158050301</v>
       </c>
       <c r="T26" s="11">
         <v>1.4449819592639499</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="16">
         <v>1.0930558725119499</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="16">
         <v>1.53692376966003</v>
       </c>
       <c r="X26" s="13">
@@ -40159,8 +40860,8 @@
         <v>1.00077453807247</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:55">
+      <c r="A27" s="17"/>
       <c r="B27" s="13">
         <v>71</v>
       </c>
@@ -40197,28 +40898,28 @@
       <c r="N27" s="11">
         <v>0.83483890949765904</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="16">
         <v>0.69727306631419905</v>
       </c>
       <c r="P27" s="11">
         <v>0.61989049012873398</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="16">
         <v>0.58666919886993096</v>
       </c>
       <c r="R27" s="11">
         <v>0.989419763112657</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="16">
         <v>0.729188040333552</v>
       </c>
       <c r="T27" s="11">
         <v>0.75204479808237301</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="16">
         <v>0.59008747252731697</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="16">
         <v>0.74681568233487905</v>
       </c>
       <c r="X27" s="13">
@@ -40312,8 +41013,8 @@
         <v>0.528014277825124</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:55">
+      <c r="A28" s="17"/>
       <c r="B28" s="13">
         <v>72</v>
       </c>
@@ -40350,28 +41051,28 @@
       <c r="N28" s="11">
         <v>0.50359097095320104</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="16">
         <v>0.42489175994751899</v>
       </c>
       <c r="P28" s="11">
         <v>0.37589364940297998</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="16">
         <v>0.36460582332403202</v>
       </c>
       <c r="R28" s="11">
         <v>0.55416556808028805</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="16">
         <v>0.41315067886089402</v>
       </c>
       <c r="T28" s="11">
         <v>0.43390237571025803</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="16">
         <v>0.38262075181610999</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="16">
         <v>0.42306604657755797</v>
       </c>
       <c r="X28" s="13">
@@ -40465,8 +41166,8 @@
         <v>0.34569489730666803</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:55">
+      <c r="A29" s="17"/>
       <c r="B29" s="13">
         <v>73</v>
       </c>
@@ -40503,28 +41204,28 @@
       <c r="N29" s="11">
         <v>0.32861873484544701</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="16">
         <v>0.278861756539029</v>
       </c>
       <c r="P29" s="11">
         <v>0.25434334562101901</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="16">
         <v>0.25654965941802399</v>
       </c>
       <c r="R29" s="11">
         <v>0.35056043372626799</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="16">
         <v>0.29408398549523501</v>
       </c>
       <c r="T29" s="11">
         <v>0.29499813284760201</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="16">
         <v>0.28859571907675802</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="16">
         <v>0.30895640870616897</v>
       </c>
       <c r="X29" s="13">
@@ -40618,8 +41319,8 @@
         <v>0.266707770524935</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+    <row r="30" spans="1:55">
+      <c r="A30" s="17"/>
       <c r="B30" s="13">
         <v>74</v>
       </c>
@@ -40656,28 +41357,28 @@
       <c r="N30" s="11">
         <v>0.232069358579089</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="16">
         <v>0.21071122361755201</v>
       </c>
       <c r="P30" s="11">
         <v>0.198874931818179</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="16">
         <v>0.20251892291829701</v>
       </c>
       <c r="R30" s="11">
         <v>0.25444729039869801</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="16">
         <v>0.238171074992027</v>
       </c>
       <c r="T30" s="11">
         <v>0.24780565614818201</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="16">
         <v>0.246205558402631</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V30" s="16">
         <v>0.264466685317227</v>
       </c>
       <c r="X30" s="13">
@@ -40771,8 +41472,8 @@
         <v>0.22890548795422999</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+    <row r="31" spans="1:55">
+      <c r="A31" s="17"/>
       <c r="B31" s="13">
         <v>75</v>
       </c>
@@ -40809,28 +41510,28 @@
       <c r="N31" s="11">
         <v>0.17891286347290999</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="16">
         <v>0.17373975938896299</v>
       </c>
       <c r="P31" s="11">
         <v>0.16706078887796</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="16">
         <v>0.17966672662629299</v>
       </c>
       <c r="R31" s="11">
         <v>0.20994126445639399</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="16">
         <v>0.210865671207559</v>
       </c>
       <c r="T31" s="11">
         <v>0.222219583136782</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="16">
         <v>0.22600953988341199</v>
       </c>
-      <c r="V31" s="18">
+      <c r="V31" s="16">
         <v>0.24356836439692001</v>
       </c>
       <c r="X31" s="13">
@@ -40924,8 +41625,8 @@
         <v>0.20880589808768099</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+    <row r="32" spans="1:55">
+      <c r="A32" s="17"/>
       <c r="B32" s="13">
         <v>76</v>
       </c>
@@ -40962,28 +41663,28 @@
       <c r="N32" s="11">
         <v>0.15640941498638899</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="16">
         <v>0.15915896783463199</v>
       </c>
       <c r="P32" s="11">
         <v>0.15321073125367801</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="16">
         <v>0.16833901592193901</v>
       </c>
       <c r="R32" s="11">
         <v>0.18739475655505999</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="16">
         <v>0.19574922945416001</v>
       </c>
       <c r="T32" s="11">
         <v>0.20803391710739</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="16">
         <v>0.217302128146526</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="16">
         <v>0.23333123458491101</v>
       </c>
       <c r="X32" s="13">
@@ -41077,8 +41778,8 @@
         <v>0.197752598183011</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+    <row r="33" spans="1:55">
+      <c r="A33" s="17"/>
       <c r="B33" s="13">
         <v>77</v>
       </c>
@@ -41115,28 +41816,28 @@
       <c r="N33" s="11">
         <v>0.142901877770612</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="16">
         <v>0.15226470315865001</v>
       </c>
       <c r="P33" s="11">
         <v>0.14782760621942301</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="16">
         <v>0.16067789511655201</v>
       </c>
       <c r="R33" s="11">
         <v>0.17150490254783099</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="16">
         <v>0.191069453124564</v>
       </c>
       <c r="T33" s="11">
         <v>0.20223343914349201</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="16">
         <v>0.21311897072436101</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="16">
         <v>0.22731542754694201</v>
       </c>
       <c r="X33" s="13">
@@ -41230,8 +41931,8 @@
         <v>0.19439120212907399</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+    <row r="34" spans="1:55">
+      <c r="A34" s="17"/>
       <c r="B34" s="13">
         <v>78</v>
       </c>
@@ -41268,28 +41969,28 @@
       <c r="N34" s="11">
         <v>0.139313598697511</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="16">
         <v>0.149231752354786</v>
       </c>
       <c r="P34" s="11">
         <v>0.144162990624501</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="16">
         <v>0.16024241078420101</v>
       </c>
       <c r="R34" s="11">
         <v>0.16594710882286701</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S34" s="16">
         <v>0.18714945704212099</v>
       </c>
       <c r="T34" s="11">
         <v>0.200847298350254</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="16">
         <v>0.21148256556727901</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="16">
         <v>0.22570212155257099</v>
       </c>
       <c r="X34" s="13">
@@ -41383,8 +42084,8 @@
         <v>0.19269533318558699</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+    <row r="35" spans="1:55">
+      <c r="A35" s="17"/>
       <c r="B35" s="13">
         <v>79</v>
       </c>
@@ -41421,28 +42122,28 @@
       <c r="N35" s="11">
         <v>0.13724687478636699</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="16">
         <v>0.145956088221112</v>
       </c>
       <c r="P35" s="11">
         <v>0.14129591432532199</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="16">
         <v>0.158627704546772</v>
       </c>
       <c r="R35" s="11">
         <v>0.16262069460400499</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="16">
         <v>0.185615914480424</v>
       </c>
       <c r="T35" s="11">
         <v>0.19983869180059599</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="16">
         <v>0.21097458956347301</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="16">
         <v>0.22517044614329601</v>
       </c>
       <c r="X35" s="13">
@@ -41536,8 +42237,8 @@
         <v>0.19151724970530901</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+    <row r="36" spans="1:55">
+      <c r="A36" s="17"/>
       <c r="B36" s="13">
         <v>80</v>
       </c>
@@ -41574,28 +42275,28 @@
       <c r="N36" s="11">
         <v>0.13490281255895001</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="16">
         <v>0.146040634201518</v>
       </c>
       <c r="P36" s="11">
         <v>0.14115474480232201</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="16">
         <v>0.15823233271870399</v>
       </c>
       <c r="R36" s="11">
         <v>0.161335888162882</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S36" s="16">
         <v>0.185276841346281</v>
       </c>
       <c r="T36" s="11">
         <v>0.199472055986465</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="16">
         <v>0.21000092509134599</v>
       </c>
-      <c r="V36" s="18">
+      <c r="V36" s="16">
         <v>0.22491822686952201</v>
       </c>
       <c r="X36" s="13">
@@ -41689,8 +42390,8 @@
         <v>0.19074457345192</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+    <row r="37" spans="1:55">
+      <c r="A37" s="17"/>
       <c r="B37" s="13">
         <v>81</v>
       </c>
@@ -41727,28 +42428,28 @@
       <c r="N37" s="11">
         <v>0.13469342288167299</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="16">
         <v>0.14595757185819699</v>
       </c>
       <c r="P37" s="11">
         <v>0.14092182347726401</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="16">
         <v>0.157076021855002</v>
       </c>
       <c r="R37" s="11">
         <v>0.161234554780396</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="16">
         <v>0.184539851898091</v>
       </c>
       <c r="T37" s="11">
         <v>0.19926552206819101</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="16">
         <v>0.20994163100202001</v>
       </c>
-      <c r="V37" s="18">
+      <c r="V37" s="16">
         <v>0.224321747549976</v>
       </c>
       <c r="X37" s="13">
@@ -41842,8 +42543,8 @@
         <v>0.19069832761128</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+    <row r="38" spans="1:55">
+      <c r="A38" s="17"/>
       <c r="B38" s="13">
         <v>82</v>
       </c>
@@ -41880,28 +42581,28 @@
       <c r="N38" s="11">
         <v>0.13457457676343501</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="16">
         <v>0.144850365503193</v>
       </c>
       <c r="P38" s="11">
         <v>0.140744178785082</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="16">
         <v>0.157552541843651</v>
       </c>
       <c r="R38" s="11">
         <v>0.16118190893668999</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="16">
         <v>0.18557074888276801</v>
       </c>
       <c r="T38" s="11">
         <v>0.19950035854561399</v>
       </c>
-      <c r="U38" s="18">
+      <c r="U38" s="16">
         <v>0.209910420320156</v>
       </c>
-      <c r="V38" s="18">
+      <c r="V38" s="16">
         <v>0.224513396612637</v>
       </c>
       <c r="X38" s="13">
@@ -41995,8 +42696,8 @@
         <v>0.190790836747048</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+    <row r="39" spans="1:55">
+      <c r="A39" s="17"/>
       <c r="B39" s="13">
         <v>83</v>
       </c>
@@ -42033,28 +42734,28 @@
       <c r="N39" s="11">
         <v>0.13379991553935799</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="16">
         <v>0.14498043974807601</v>
       </c>
       <c r="P39" s="11">
         <v>0.140272788495899</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="16">
         <v>0.157925415721409</v>
       </c>
       <c r="R39" s="11">
         <v>0.16096128725398301</v>
       </c>
-      <c r="S39" s="18">
+      <c r="S39" s="16">
         <v>0.184998642908454</v>
       </c>
       <c r="T39" s="11">
         <v>0.19976497152242101</v>
       </c>
-      <c r="U39" s="18">
+      <c r="U39" s="16">
         <v>0.21009829919916201</v>
       </c>
-      <c r="V39" s="18">
+      <c r="V39" s="16">
         <v>0.22409901774496699</v>
       </c>
       <c r="X39" s="13">
@@ -42148,8 +42849,8 @@
         <v>0.190548172871844</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+    <row r="40" spans="1:55">
+      <c r="A40" s="17"/>
       <c r="B40" s="13">
         <v>84</v>
       </c>
@@ -42186,28 +42887,28 @@
       <c r="N40" s="11">
         <v>0.13399046496508199</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="16">
         <v>0.14507457894524001</v>
       </c>
       <c r="P40" s="11">
         <v>0.139804185117167</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="Q40" s="16">
         <v>0.157993627148453</v>
       </c>
       <c r="R40" s="11">
         <v>0.16089315728152501</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S40" s="16">
         <v>0.185077743067979</v>
       </c>
       <c r="T40" s="11">
         <v>0.199265634553037</v>
       </c>
-      <c r="U40" s="18">
+      <c r="U40" s="16">
         <v>0.20985279701955301</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="16">
         <v>0.224001176243073</v>
       </c>
       <c r="X40" s="13">
@@ -42301,8 +43002,8 @@
         <v>0.18989874419334199</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+    <row r="41" spans="1:55">
+      <c r="A41" s="17"/>
       <c r="B41" s="13">
         <v>85</v>
       </c>
@@ -42339,28 +43040,28 @@
       <c r="N41" s="11">
         <v>0.13447509938187299</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="16">
         <v>0.14528387262247699</v>
       </c>
       <c r="P41" s="11">
         <v>0.14048504750792201</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="Q41" s="16">
         <v>0.15875041200018999</v>
       </c>
       <c r="R41" s="11">
         <v>0.16109881071460699</v>
       </c>
-      <c r="S41" s="18">
+      <c r="S41" s="16">
         <v>0.184590303316472</v>
       </c>
       <c r="T41" s="11">
         <v>0.199887157278615</v>
       </c>
-      <c r="U41" s="18">
+      <c r="U41" s="16">
         <v>0.21009092465012499</v>
       </c>
-      <c r="V41" s="18">
+      <c r="V41" s="16">
         <v>0.224044194930585</v>
       </c>
       <c r="X41" s="13">
@@ -42454,8 +43155,8 @@
         <v>0.19051645212923901</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+    <row r="42" spans="1:55">
+      <c r="A42" s="17"/>
       <c r="B42" s="13">
         <v>86</v>
       </c>
@@ -42492,28 +43193,28 @@
       <c r="N42" s="11">
         <v>0.13405516123887201</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="16">
         <v>0.14526755455396501</v>
       </c>
       <c r="P42" s="11">
         <v>0.14033089470590401</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="16">
         <v>0.15863181994270401</v>
       </c>
       <c r="R42" s="11">
         <v>0.16084251677213701</v>
       </c>
-      <c r="S42" s="18">
+      <c r="S42" s="16">
         <v>0.18471309998209801</v>
       </c>
       <c r="T42" s="11">
         <v>0.19969706942895499</v>
       </c>
-      <c r="U42" s="18">
+      <c r="U42" s="16">
         <v>0.21009279713585699</v>
       </c>
-      <c r="V42" s="18">
+      <c r="V42" s="16">
         <v>0.22421755065094801</v>
       </c>
       <c r="X42" s="13">
@@ -42607,8 +43308,8 @@
         <v>0.191084017980134</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+    <row r="43" spans="1:55">
+      <c r="A43" s="17"/>
       <c r="B43" s="13">
         <v>87</v>
       </c>
@@ -42645,28 +43346,28 @@
       <c r="N43" s="11">
         <v>0.134591610468665</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="16">
         <v>0.14527645540676201</v>
       </c>
       <c r="P43" s="11">
         <v>0.140522566071555</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="Q43" s="16">
         <v>0.15854537335534399</v>
       </c>
       <c r="R43" s="11">
         <v>0.160631220669705</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="16">
         <v>0.18484958780588701</v>
       </c>
       <c r="T43" s="11">
         <v>0.199392297402362</v>
       </c>
-      <c r="U43" s="18">
+      <c r="U43" s="16">
         <v>0.20949600654348199</v>
       </c>
-      <c r="V43" s="18">
+      <c r="V43" s="16">
         <v>0.224187107969501</v>
       </c>
       <c r="X43" s="13">
@@ -42760,8 +43461,8 @@
         <v>0.19084428162154601</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+    <row r="44" spans="1:55">
+      <c r="A44" s="17"/>
       <c r="B44" s="13">
         <v>88</v>
       </c>
@@ -42798,28 +43499,28 @@
       <c r="N44" s="11">
         <v>0.133895777888865</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="16">
         <v>0.145515793219754</v>
       </c>
       <c r="P44" s="11">
         <v>0.140810580756662</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="16">
         <v>0.15798389526492401</v>
       </c>
       <c r="R44" s="11">
         <v>0.160757383155123</v>
       </c>
-      <c r="S44" s="18">
+      <c r="S44" s="16">
         <v>0.184932018876139</v>
       </c>
       <c r="T44" s="11">
         <v>0.19913750940007899</v>
       </c>
-      <c r="U44" s="18">
+      <c r="U44" s="16">
         <v>0.209665514504529</v>
       </c>
-      <c r="V44" s="18">
+      <c r="V44" s="16">
         <v>0.22415066480040999</v>
       </c>
       <c r="X44" s="13">
@@ -42913,8 +43614,8 @@
         <v>0.190415791716775</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:55">
+      <c r="A45" s="17"/>
       <c r="B45" s="13">
         <v>89</v>
       </c>
@@ -42951,28 +43652,28 @@
       <c r="N45" s="11">
         <v>0.13353320898580601</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="16">
         <v>0.14559059761968601</v>
       </c>
       <c r="P45" s="11">
         <v>0.140406607712311</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="Q45" s="16">
         <v>0.15810473314166801</v>
       </c>
       <c r="R45" s="11">
         <v>0.16101079903554</v>
       </c>
-      <c r="S45" s="18">
+      <c r="S45" s="16">
         <v>0.18486993205815799</v>
       </c>
       <c r="T45" s="11">
         <v>0.19899142448069301</v>
       </c>
-      <c r="U45" s="18">
+      <c r="U45" s="16">
         <v>0.20962702624339299</v>
       </c>
-      <c r="V45" s="18">
+      <c r="V45" s="16">
         <v>0.22416991426427499</v>
       </c>
       <c r="X45" s="13">
@@ -43066,8 +43767,8 @@
         <v>0.19034350174230699</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:55">
+      <c r="A46" s="17"/>
       <c r="B46" s="13">
         <v>90</v>
       </c>
@@ -43104,28 +43805,28 @@
       <c r="N46" s="11">
         <v>0.133983286294934</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="16">
         <v>0.14548281768862301</v>
       </c>
       <c r="P46" s="11">
         <v>0.13975490218418299</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="Q46" s="16">
         <v>0.157990463025689</v>
       </c>
       <c r="R46" s="11">
         <v>0.161306831179092</v>
       </c>
-      <c r="S46" s="18">
+      <c r="S46" s="16">
         <v>0.185047911295905</v>
       </c>
       <c r="T46" s="11">
         <v>0.19883565131429301</v>
       </c>
-      <c r="U46" s="18">
+      <c r="U46" s="16">
         <v>0.209706032342346</v>
       </c>
-      <c r="V46" s="18">
+      <c r="V46" s="16">
         <v>0.224231186536373</v>
       </c>
       <c r="X46" s="13">
@@ -43219,7 +43920,7 @@
         <v>0.19057150282250501</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55">
       <c r="C48" s="13">
         <v>0.1</v>
       </c>
@@ -43356,8 +44057,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:55">
+      <c r="A49" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="13">
@@ -43556,8 +44257,8 @@
         <v>1.00077453807247</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:55">
+      <c r="A50" s="17"/>
       <c r="B50" s="13">
         <v>71</v>
       </c>
@@ -43754,8 +44455,8 @@
         <v>0.528014277825124</v>
       </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+    <row r="51" spans="1:55">
+      <c r="A51" s="17"/>
       <c r="B51" s="13">
         <v>72</v>
       </c>
@@ -43952,8 +44653,8 @@
         <v>0.34569489730666803</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+    <row r="52" spans="1:55">
+      <c r="A52" s="17"/>
       <c r="B52" s="13">
         <v>73</v>
       </c>
@@ -44150,8 +44851,8 @@
         <v>0.266707770524935</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+    <row r="53" spans="1:55">
+      <c r="A53" s="17"/>
       <c r="B53" s="13">
         <v>74</v>
       </c>
@@ -44348,8 +45049,8 @@
         <v>0.22890548795422999</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+    <row r="54" spans="1:55">
+      <c r="A54" s="17"/>
       <c r="B54" s="13">
         <v>75</v>
       </c>
@@ -44546,8 +45247,8 @@
         <v>0.20880589808768099</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+    <row r="55" spans="1:55">
+      <c r="A55" s="17"/>
       <c r="B55" s="13">
         <v>76</v>
       </c>
@@ -44744,8 +45445,8 @@
         <v>0.197752598183011</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+    <row r="56" spans="1:55">
+      <c r="A56" s="17"/>
       <c r="B56" s="13">
         <v>77</v>
       </c>
@@ -44942,8 +45643,8 @@
         <v>0.19439120212907399</v>
       </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+    <row r="57" spans="1:55">
+      <c r="A57" s="17"/>
       <c r="B57" s="13">
         <v>78</v>
       </c>
@@ -45140,8 +45841,8 @@
         <v>0.19269533318558699</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+    <row r="58" spans="1:55">
+      <c r="A58" s="17"/>
       <c r="B58" s="13">
         <v>79</v>
       </c>
@@ -45338,8 +46039,8 @@
         <v>0.19151724970530901</v>
       </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+    <row r="59" spans="1:55">
+      <c r="A59" s="17"/>
       <c r="B59" s="13">
         <v>80</v>
       </c>
@@ -45536,8 +46237,8 @@
         <v>0.19074457345192</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:55">
+      <c r="A60" s="17"/>
       <c r="B60" s="13">
         <v>81</v>
       </c>
@@ -45734,8 +46435,8 @@
         <v>0.19069832761128</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+    <row r="61" spans="1:55">
+      <c r="A61" s="17"/>
       <c r="B61" s="13">
         <v>82</v>
       </c>
@@ -45932,8 +46633,8 @@
         <v>0.190790836747048</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+    <row r="62" spans="1:55">
+      <c r="A62" s="17"/>
       <c r="B62" s="13">
         <v>83</v>
       </c>
@@ -46130,8 +46831,8 @@
         <v>0.190548172871844</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+    <row r="63" spans="1:55">
+      <c r="A63" s="17"/>
       <c r="B63" s="13">
         <v>84</v>
       </c>
@@ -46328,8 +47029,8 @@
         <v>0.18989874419334199</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+    <row r="64" spans="1:55">
+      <c r="A64" s="17"/>
       <c r="B64" s="13">
         <v>85</v>
       </c>
@@ -46526,8 +47227,8 @@
         <v>0.19051645212923901</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+    <row r="65" spans="1:55">
+      <c r="A65" s="17"/>
       <c r="B65" s="13">
         <v>86</v>
       </c>
@@ -46724,8 +47425,8 @@
         <v>0.191084017980134</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+    <row r="66" spans="1:55">
+      <c r="A66" s="17"/>
       <c r="B66" s="13">
         <v>87</v>
       </c>
@@ -46922,8 +47623,8 @@
         <v>0.19084428162154601</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+    <row r="67" spans="1:55">
+      <c r="A67" s="17"/>
       <c r="B67" s="13">
         <v>88</v>
       </c>
@@ -47120,8 +47821,8 @@
         <v>0.190415791716775</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+    <row r="68" spans="1:55">
+      <c r="A68" s="17"/>
       <c r="B68" s="13">
         <v>89</v>
       </c>
@@ -47318,8 +48019,8 @@
         <v>0.19034350174230699</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+    <row r="69" spans="1:55">
+      <c r="A69" s="17"/>
       <c r="B69" s="13">
         <v>90</v>
       </c>
@@ -47529,16 +48230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.15"/>
+  <cols>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1">
         <v>1847175.8119999999</v>
       </c>
@@ -47555,430 +48259,430 @@
         <v>16942012.085999999</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="13">
         <v>70</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>1.2431576761976599</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>1.0971263801825</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>1.4443479158050301</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>1.0930558725119499</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>1.53692376966003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="13">
         <v>71</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>0.69727306631419905</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>0.58666919886993096</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>0.729188040333552</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>0.59008747252731697</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>0.74681568233487905</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="13">
         <v>72</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>0.42489175994751899</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>0.36460582332403202</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>0.41315067886089402</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>0.38262075181610999</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>0.42306604657755797</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="13">
         <v>73</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>0.278861756539029</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>0.25654965941802399</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>0.29408398549523501</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>0.28859571907675802</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>0.30895640870616897</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="13">
         <v>74</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>0.21071122361755201</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>0.20251892291829701</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>0.238171074992027</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>0.246205558402631</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>0.264466685317227</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="13">
         <v>75</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>0.17373975938896299</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>0.17966672662629299</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>0.210865671207559</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>0.22600953988341199</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>0.24356836439692001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="13">
         <v>76</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>0.15915896783463199</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>0.16833901592193901</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>0.19574922945416001</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>0.217302128146526</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>0.23333123458491101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="13">
         <v>77</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>0.15226470315865001</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>0.16067789511655201</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>0.191069453124564</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>0.21311897072436101</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>0.22731542754694201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="13">
         <v>78</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>0.149231752354786</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>0.16024241078420101</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>0.18714945704212099</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>0.21148256556727901</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>0.22570212155257099</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="13">
         <v>79</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>0.145956088221112</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>0.158627704546772</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>0.185615914480424</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>0.21097458956347301</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>0.22517044614329601</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="13">
         <v>80</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>0.146040634201518</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>0.15823233271870399</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>0.185276841346281</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>0.21000092509134599</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>0.22491822686952201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="13">
         <v>81</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>0.14595757185819699</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>0.157076021855002</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>0.184539851898091</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>0.20994163100202001</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>0.224321747549976</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="13">
         <v>82</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>0.144850365503193</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>0.157552541843651</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>0.18557074888276801</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>0.209910420320156</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>0.224513396612637</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13">
         <v>83</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>0.14498043974807601</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>0.157925415721409</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>0.184998642908454</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>0.21009829919916201</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>0.22409901774496699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="13">
         <v>84</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>0.14507457894524001</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>0.157993627148453</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>0.185077743067979</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>0.20985279701955301</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>0.224001176243073</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>85</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>0.14528387262247699</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>0.15875041200018999</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>0.184590303316472</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>0.21009092465012499</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>0.224044194930585</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>86</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>0.14526755455396501</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>0.15863181994270401</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>0.18471309998209801</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>0.21009279713585699</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>0.22421755065094801</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="13">
         <v>87</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>0.14527645540676201</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>0.15854537335534399</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>0.18484958780588701</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>0.20949600654348199</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>0.224187107969501</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="13">
         <v>88</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>0.145515793219754</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>0.15798389526492401</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>0.184932018876139</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>0.209665514504529</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>0.22415066480040999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="13">
         <v>89</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>0.14559059761968601</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>0.15810473314166801</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>0.18486993205815799</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>0.20962702624339299</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>0.22416991426427499</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="13">
         <v>90</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>0.14548281768862301</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>0.157990463025689</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>0.185047911295905</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>0.209706032342346</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>0.224231186536373</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="B25" s="13">
         <v>0.2</v>
       </c>
@@ -47995,7 +48699,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="13">
         <v>70</v>
       </c>
@@ -48020,7 +48724,7 @@
         <v>0.62116917516963088</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="13">
         <v>71</v>
       </c>
@@ -48045,7 +48749,7 @@
         <v>0.30183597297237263</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13">
         <v>72</v>
       </c>
@@ -48070,7 +48774,7 @@
         <v>0.17098804272705675</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="13">
         <v>73</v>
       </c>
@@ -48095,7 +48799,7 @@
         <v>0.124869041228918</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="13">
         <v>74</v>
       </c>
@@ -48120,7 +48824,7 @@
         <v>0.10688789907562357</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="13">
         <v>75</v>
       </c>
@@ -48145,7 +48849,7 @@
         <v>9.8441551231469387E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13">
         <v>76</v>
       </c>
@@ -48170,7 +48874,7 @@
         <v>9.4304072452781038E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="13">
         <v>77</v>
       </c>
@@ -48195,7 +48899,7 @@
         <v>9.1872700143026564E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="13">
         <v>78</v>
       </c>
@@ -48220,7 +48924,7 @@
         <v>9.1220660026527275E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="13">
         <v>79</v>
       </c>
@@ -48245,7 +48949,7 @@
         <v>9.1005775995219473E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="13">
         <v>80</v>
       </c>
@@ -48270,7 +48974,7 @@
         <v>9.0903838058319239E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="13">
         <v>81</v>
       </c>
@@ -48295,7 +48999,7 @@
         <v>9.066276262293177E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="13">
         <v>82</v>
       </c>
@@ -48320,7 +49024,7 @@
         <v>9.074022026430946E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="13">
         <v>83</v>
       </c>
@@ -48345,7 +49049,7 @@
         <v>9.0572743266087719E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="13">
         <v>84</v>
       </c>
@@ -48370,7 +49074,7 @@
         <v>9.0533199258617331E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="13">
         <v>85</v>
       </c>
@@ -48395,7 +49099,7 @@
         <v>9.0550585861106148E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="13">
         <v>86</v>
       </c>
@@ -48420,7 +49124,7 @@
         <v>9.062064999307845E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="13">
         <v>87</v>
       </c>
@@ -48445,7 +49149,7 @@
         <v>9.0608346158823502E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="13">
         <v>88</v>
       </c>
@@ -48470,7 +49174,7 @@
         <v>9.059361714380551E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="13">
         <v>89</v>
       </c>
@@ -48495,7 +49199,7 @@
         <v>9.0601397083076102E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="13">
         <v>90</v>
       </c>
@@ -48520,8 +49224,1045 @@
         <v>9.0626161126336563E-2</v>
       </c>
     </row>
+    <row r="48" spans="1:11">
+      <c r="B48">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>2.8674697192059488</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>70</v>
+      </c>
+      <c r="F48">
+        <v>1.084589701592777</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>70</v>
+      </c>
+      <c r="J48">
+        <v>4.6082978264443399</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <v>71</v>
+      </c>
+      <c r="C49">
+        <v>1.5333294261600996</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>71</v>
+      </c>
+      <c r="F49">
+        <v>0.58551700039930188</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49">
+        <v>71</v>
+      </c>
+      <c r="J49">
+        <v>2.5847420785446715</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>0.95294049684039517</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>72</v>
+      </c>
+      <c r="F50">
+        <v>0.37965719545676913</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>72</v>
+      </c>
+      <c r="J50">
+        <v>1.5750437867456315</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>0.6705229161761771</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>73</v>
+      </c>
+      <c r="F51">
+        <v>0.28636042557924402</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>73</v>
+      </c>
+      <c r="J51">
+        <v>1.0337208635253865</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>0.52930718787184916</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>74</v>
+      </c>
+      <c r="F52">
+        <v>0.24429859427471601</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>74</v>
+      </c>
+      <c r="J52">
+        <v>0.78109164460470393</v>
+      </c>
+      <c r="K52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>0.46958026664535213</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>75</v>
+      </c>
+      <c r="F53">
+        <v>0.22425900229230117</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>75</v>
+      </c>
+      <c r="J53">
+        <v>0.64404103428616055</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <v>76</v>
+      </c>
+      <c r="C54">
+        <v>0.439973953262151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>76</v>
+      </c>
+      <c r="F54">
+        <v>0.21561903306945487</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54">
+        <v>76</v>
+      </c>
+      <c r="J54">
+        <v>0.58999106836938486</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>0.41995070678714452</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>77</v>
+      </c>
+      <c r="F55">
+        <v>0.21146827593588308</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55">
+        <v>77</v>
+      </c>
+      <c r="J55">
+        <v>0.56443451546417789</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>0.41881251691334215</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>78</v>
+      </c>
+      <c r="F56">
+        <v>0.20984454541520464</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>78</v>
+      </c>
+      <c r="J56">
+        <v>0.55319158074658947</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>0.41459229094405092</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>79</v>
+      </c>
+      <c r="F57">
+        <v>0.2093405038961576</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>79</v>
+      </c>
+      <c r="J57">
+        <v>0.54104892483383182</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58">
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>0.41355893985042075</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>80</v>
+      </c>
+      <c r="F58">
+        <v>0.20837438085905347</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58">
+        <v>80</v>
+      </c>
+      <c r="J58">
+        <v>0.5413623308202159</v>
+      </c>
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59">
+        <v>81</v>
+      </c>
+      <c r="C59">
+        <v>0.410536784474754</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>81</v>
+      </c>
+      <c r="F59">
+        <v>0.20831554602703295</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59">
+        <v>81</v>
+      </c>
+      <c r="J59">
+        <v>0.54105442457186581</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>0.41178222589584185</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>82</v>
+      </c>
+      <c r="F60">
+        <v>0.20828457708484008</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60">
+        <v>82</v>
+      </c>
+      <c r="J60">
+        <v>0.53695008870451522</v>
+      </c>
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>0.41275677593207016</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <v>0.20847100076403263</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61">
+        <v>83</v>
+      </c>
+      <c r="J61">
+        <v>0.53743226475623229</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62">
+        <v>84</v>
+      </c>
+      <c r="C62">
+        <v>0.4129350545744267</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>84</v>
+      </c>
+      <c r="F62">
+        <v>0.20822740010059121</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>84</v>
+      </c>
+      <c r="J62">
+        <v>0.53778123212053397</v>
+      </c>
+      <c r="K62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>0.41491300140489912</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>85</v>
+      </c>
+      <c r="F63">
+        <v>0.20846368333393545</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>85</v>
+      </c>
+      <c r="J63">
+        <v>0.53855706902068468</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>0.41460304701867534</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>86</v>
+      </c>
+      <c r="F64">
+        <v>0.20846554131648914</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <v>86</v>
+      </c>
+      <c r="J64">
+        <v>0.53849657909161508</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65">
+        <v>87</v>
+      </c>
+      <c r="C65">
+        <v>0.41437710862537708</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>87</v>
+      </c>
+      <c r="F65">
+        <v>0.20787337311468448</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>87</v>
+      </c>
+      <c r="J65">
+        <v>0.53852957392516132</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66">
+        <v>88</v>
+      </c>
+      <c r="C66">
+        <v>0.41290961914434848</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>88</v>
+      </c>
+      <c r="F66">
+        <v>0.20804156816629432</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66">
+        <v>88</v>
+      </c>
+      <c r="J66">
+        <v>0.53941678231755952</v>
+      </c>
+      <c r="K66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
+        <v>89</v>
+      </c>
+      <c r="C67">
+        <v>0.41322544324515881</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>89</v>
+      </c>
+      <c r="F67">
+        <v>0.20800337801269828</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <v>89</v>
+      </c>
+      <c r="J67">
+        <v>0.53969407695219473</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68">
+        <v>90</v>
+      </c>
+      <c r="C68">
+        <v>0.41292678476487921</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>90</v>
+      </c>
+      <c r="F68">
+        <v>0.20808177217665855</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>90</v>
+      </c>
+      <c r="J68">
+        <v>0.53929454434940294</v>
+      </c>
+      <c r="K68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="C69">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>1.6686585095623829</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>70</v>
+      </c>
+      <c r="G69">
+        <v>0.62116917516963088</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="C70">
+        <v>71</v>
+      </c>
+      <c r="D70">
+        <v>0.8424326405425081</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>71</v>
+      </c>
+      <c r="G70">
+        <v>0.30183597297237263</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="C71">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>0.47731394110016356</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>72</v>
+      </c>
+      <c r="G71">
+        <v>0.17098804272705675</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="C72">
+        <v>73</v>
+      </c>
+      <c r="D72">
+        <v>0.3397559130683071</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>73</v>
+      </c>
+      <c r="G72">
+        <v>0.124869041228918</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="C73">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>0.27515959739904811</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>74</v>
+      </c>
+      <c r="G73">
+        <v>0.10688789907562357</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>0.24361360084004455</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>75</v>
+      </c>
+      <c r="G74">
+        <v>9.8441551231469387E-2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="C75">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>0.22614954049136171</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>76</v>
+      </c>
+      <c r="G75">
+        <v>9.4304072452781038E-2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="C76">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>0.22074298400328968</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>77</v>
+      </c>
+      <c r="G76">
+        <v>9.1872700143026564E-2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="C77">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>0.21621420340351716</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>78</v>
+      </c>
+      <c r="G77">
+        <v>9.1220660026527275E-2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="C78">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>0.21444249811191118</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>79</v>
+      </c>
+      <c r="G78">
+        <v>9.1005775995219473E-2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="C79">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>0.2140507661306757</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>80</v>
+      </c>
+      <c r="G79">
+        <v>9.0903838058319239E-2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="C80">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>0.21319932050547499</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>81</v>
+      </c>
+      <c r="G80">
+        <v>9.066276262293177E-2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>0.21439031819179402</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>82</v>
+      </c>
+      <c r="G81">
+        <v>9.074022026430946E-2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>0.21372936282780994</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>83</v>
+      </c>
+      <c r="G82">
+        <v>9.0572743266087719E-2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83">
+        <v>84</v>
+      </c>
+      <c r="D83">
+        <v>0.21382074742625387</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>84</v>
+      </c>
+      <c r="G83">
+        <v>9.0533199258617331E-2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84">
+        <v>85</v>
+      </c>
+      <c r="D84">
+        <v>0.21325760714658115</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>85</v>
+      </c>
+      <c r="G84">
+        <v>9.0550585861106148E-2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85">
+        <v>86</v>
+      </c>
+      <c r="D85">
+        <v>0.21339947442024873</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>86</v>
+      </c>
+      <c r="G85">
+        <v>9.062064999307845E-2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86">
+        <v>87</v>
+      </c>
+      <c r="D86">
+        <v>0.21355715912081494</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>87</v>
+      </c>
+      <c r="G86">
+        <v>9.0608346158823502E-2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>0.21365239192817612</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>88</v>
+      </c>
+      <c r="G87">
+        <v>9.059361714380551E-2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="C88">
+        <v>89</v>
+      </c>
+      <c r="D88">
+        <v>0.21358066288282493</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>89</v>
+      </c>
+      <c r="G88">
+        <v>9.0601397083076102E-2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="C89">
+        <v>90</v>
+      </c>
+      <c r="D89">
+        <v>0.2137862827105286</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>90</v>
+      </c>
+      <c r="G89">
+        <v>9.0626161126336563E-2</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G48" r:id="rId1" xr:uid="{A86F973F-F4C9-48B9-A5CF-C4339EFA4CB1}"/>
+    <hyperlink ref="E69" r:id="rId2" xr:uid="{B79EC0ED-FAA1-4BD9-B6E4-1F593EE7460C}"/>
+    <hyperlink ref="K48" r:id="rId3" xr:uid="{60B0D877-08AA-4AC0-B9B4-BF9F6C759F33}"/>
+    <hyperlink ref="D48" r:id="rId4" xr:uid="{D5CE49B8-1C3F-4901-BAFC-20F5DAEBFB1B}"/>
+    <hyperlink ref="H69" r:id="rId5" xr:uid="{7133A369-C9E1-4FE9-9F39-8C6291D7BC5E}"/>
+    <hyperlink ref="H89" r:id="rId6" xr:uid="{EE539C48-E35D-4DEA-8D98-1EE3E6C0CEB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>